--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH1.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH1.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28502"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29E71C6A-5010-4920-B01A-4ED628B94CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Variables</t>
   </si>
@@ -111,6 +94,9 @@
     <t>DRE Alignment score (Delegator|Observed_ADM (target))</t>
   </si>
   <si>
+    <t>Truncation Error</t>
+  </si>
+  <si>
     <t>Trust_Rating</t>
   </si>
   <si>
@@ -219,6 +205,9 @@
     <t>Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey using the DRE server for ADEPT, no change for ST</t>
   </si>
   <si>
+    <t>During the January 2025 Evaluation, some ADMs had action text accidentally truncated. This column shows which participants experienced one of those errors and had their scores in the previous two columns (Alignment score (Delegator|Observed_ADM (target)), DRE Alignment score (Delegator|Observed_ADM (target))) fixed to omit the affected probe(s).</t>
+  </si>
+  <si>
     <t>Delegator rating in response to individual DM</t>
   </si>
   <si>
@@ -277,6 +266,9 @@
   </si>
   <si>
     <t>1 for competence error, 0 for none</t>
+  </si>
+  <si>
+    <t>1 for truncation error, 0 for none</t>
   </si>
   <si>
     <t>1-5</t>
@@ -291,8 +283,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +297,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -314,7 +314,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -326,31 +333,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,10 +375,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -391,116 +405,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,564 +492,605 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="48.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.28515625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="46.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="48.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="48.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="263.43357142857144" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="60.75">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75" customFormat="1" s="4">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="P2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="T2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>38</v>
+      <c r="U2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="396.75">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="163.5" customFormat="1" s="4">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="T3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="V3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="X3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="Z3" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AA3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AB3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>62</v>
+      <c r="AC3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="409.6">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="253.5" customFormat="1" s="4">
+      <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="M4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="N4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="O4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="P4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="V4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="W4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="Y4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>82</v>
+      <c r="AB4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH1.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ134_PH1.xlsx
@@ -58,16 +58,16 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Alignment score (ADM|target)</t>
-  </si>
-  <si>
-    <t>DRE Alignment score (ADM|target)</t>
-  </si>
-  <si>
-    <t>Alignment score (Delegator|target)</t>
-  </si>
-  <si>
-    <t>DRE Alignment score (Delegator|target)</t>
+    <t>P1E/Population Alignment score (ADM|target)</t>
+  </si>
+  <si>
+    <t>DRE/Distance Alignment score (ADM|target)</t>
+  </si>
+  <si>
+    <t>P1E/Population Alignment score (Delegator|target)</t>
+  </si>
+  <si>
+    <t>DRE/Distance Alignment score (Delegator|target)</t>
   </si>
   <si>
     <t>Alignment score (Participant_sim|Observed_ADM(target))</t>
@@ -88,10 +88,10 @@
     <t>Competence Error</t>
   </si>
   <si>
-    <t>Alignment score (Delegator|Observed_ADM (target))</t>
-  </si>
-  <si>
-    <t>DRE Alignment score (Delegator|Observed_ADM (target))</t>
+    <t>P1E/Population Alignment score (Delegator|Observed_ADM (target))</t>
+  </si>
+  <si>
+    <t>DRE/Distance Alignment score (Delegator|Observed_ADM (target))</t>
   </si>
   <si>
     <t>Truncation Error</t>
@@ -169,16 +169,16 @@
     <t>Target against which the presented ADM was run. For baseline ADMs, established a priori (most aligned). For aligned ADMs, determined by alignment with delegator text alignment scores</t>
   </si>
   <si>
-    <t>Calculated alignment score between the KDMA measurement of the ADM aligned to a particular target and that target from the Phase 1 Server</t>
-  </si>
-  <si>
-    <t>Calculated alignment score between the KDMA measurement of the ADM aligned to a particular target and that target from the DRE server for ADEPT, no change for ST</t>
-  </si>
-  <si>
-    <t>Calculated alignment score between the KDMA measurement of a delegator and a target from the Phase 1 server</t>
-  </si>
-  <si>
-    <t>Calculated alignment score between the KDMA measurement of a delegator and a target from the DRE server for ADEPT, no change for ST</t>
+    <t>Calculated alignment score between the KDMA measurement of the ADM aligned to a particular target and that target using the population-based endpoints</t>
+  </si>
+  <si>
+    <t>Calculated alignment score between the KDMA measurement of the ADM aligned to a particular target and that target using the distance-based endpoints in the Phase 1 server for ADEPT, no change for ST</t>
+  </si>
+  <si>
+    <t>Calculated alignment score between the KDMA measurement of a delegator and a target using the population-based endpoints</t>
+  </si>
+  <si>
+    <t>Calculated alignment score between the KDMA measurement of a delegator and a target using the distance-based endpoints in the Phase 1 server for ADEPT, no change for ST</t>
   </si>
   <si>
     <t>Compares the KDMA measurement based on participant probe responses in the simulated scenario to an ADM they observed in the delegation survey</t>
@@ -199,10 +199,10 @@
     <t>During the Phase 1 experiment, several ADMs had competence errors. This column shows which participants experienced one of those errors in the delegation survey</t>
   </si>
   <si>
-    <t>Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey using the Phase 1 server and new endpoints</t>
-  </si>
-  <si>
-    <t>Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey using the DRE server for ADEPT, no change for ST</t>
+    <t>Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey using the Phase 1 server and new population-based endpoints</t>
+  </si>
+  <si>
+    <t>Compares the KDMA measurement based on delegator responses to the subset of probes from an ADM they observed in the delegation survey using the distance-based endpoints in the Phase 1 server for ADEPT, no change for ST</t>
   </si>
   <si>
     <t>During the January 2025 Evaluation, some ADMs had action text accidentally truncated. This column shows which participants experienced one of those errors and had their scores in the previous two columns (Alignment score (Delegator|Observed_ADM (target)), DRE Alignment score (Delegator|Observed_ADM (target))) fixed to omit the affected probe(s).</t>
@@ -285,13 +285,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -301,7 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -336,16 +342,10 @@
   <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -353,8 +353,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +671,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="18.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="19.290714285714284" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
@@ -683,7 +689,7 @@
     <col min="17" max="17" style="6" width="32.57642857142857" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="6" width="32.57642857142857" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="46.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="27.005" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="6" width="47.71928571428572" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
@@ -699,108 +705,108 @@
     <col min="33" max="33" style="6" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75" customFormat="1" s="4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="Z2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AB2" s="5" t="s">
@@ -901,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="163.5" customFormat="1" s="4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="184.5" customFormat="1" s="1">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -929,12 +935,12 @@
       <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="5" t="s">
         <v>50</v>
       </c>
@@ -974,7 +980,7 @@
       <c r="Z3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AB3" s="5" t="s">
@@ -996,11 +1002,11 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="253.5" customFormat="1" s="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="299.25" customFormat="1" s="1">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
         <v>68</v>
       </c>
@@ -1052,7 +1058,7 @@
       <c r="S4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="5" t="s">
         <v>81</v>
       </c>
@@ -1071,7 +1077,7 @@
       <c r="Z4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AB4" s="5" t="s">
